--- a/random_generated_emails.xlsx
+++ b/random_generated_emails.xlsx
@@ -443,7000 +443,7000 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tülay.trubin128@look.com</t>
+          <t>procurement@health.vu</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>recruitment@mobi.ve</t>
+          <t>logistics@org.az</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>stefania.barberini113@aol.com</t>
+          <t>andre.kim47@construction.no</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hansgeorgmies896@inbox.com</t>
+          <t>umberto+barese-nonis817@online.mx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>roberto.cesarotti141@gmx.com</t>
+          <t>laurie.wang961@group.sm</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sandraturner@cloud.vu</t>
+          <t>alicia-bähr@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>finance_team@me.sm</t>
+          <t>finance@enterprise.ly</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sig.ra.martina552@hushmail.com</t>
+          <t>étienne-de@att.net</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>amadeo_corcos506@tv.iq</t>
+          <t>mirkointeriano-marrone@consulting.gt</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>alice-saunders878@rocketmail.com</t>
+          <t>jean_morvan@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>kaspar-margraf@music.fm</t>
+          <t>baccio+mozart29@insurance.fr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>émile+guyon294@protonmail.com</t>
+          <t>richard_guyot@126.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rogerwebb81@mail.ru</t>
+          <t>miss_lisa@look.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>keith+pacheco652@realty.ye</t>
+          <t>finance@events.cn</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>wendyclark733@photo.sm</t>
+          <t>sandrotosto258@insurance.pa</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>kenan_mans-junitz@info.uk</t>
+          <t>calcedonio_combi-canali657@accounting.mg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>emmatrapani881@consulting.uz</t>
+          <t>laurawhite615@solutions.so</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>teresa-conti122@mail.com</t>
+          <t>adam_carpenter@finance.fo</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>gilles_ruiz929@mailspring.com</t>
+          <t>orlando-priuli@ventures.ba</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ceo@auto.ru</t>
+          <t>mr-russell@solutions.bz</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>marketing@marketing.np</t>
+          <t>sig.ra-nadia203@marketing.ss</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>susan_rousseau@msn.com</t>
+          <t>elisa+bruscantini@financial.bw</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>therese_klemt577@att.net</t>
+          <t>frauluisa@lycos.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>logistics@education.gw</t>
+          <t>max+rudolph581@group.my</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>justin-walls@outlook.com</t>
+          <t>designer@financial.cv</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>salih_mälzer-müller937@yahoo.com</t>
+          <t>mrs.+nicole324@law.sm</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>friedrich-karlmetz-binner@org.th</t>
+          <t>dr_glen@photography.om</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jonathan.martin@mailspring.com</t>
+          <t>june.hart-patel@gmx.net</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>giancarlo.accardo582@shop.lb</t>
+          <t>flavia.cianciolo579@co.tj</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>lawrence_smith362@lawyer.kw</t>
+          <t>eric.webb@biz.si</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jessica.stephenson@online.mx</t>
+          <t>manueltagliafierro@163.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>marc-germain@msn.com</t>
+          <t>quality_assurance@me.ao</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ops@media.cm</t>
+          <t>adriana-papetti575@biz.gh</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>robert+nicholls@jobs.bn</t>
+          <t>juan.reeves@comcast.net</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>adeline-pärtzelt-tlustek173@verizon.net</t>
+          <t>pr@auto.so</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>marianne.richard@aol.com</t>
+          <t>brand_management@law.ki</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mrsfrances@insurance.uk</t>
+          <t>herr-elmar427@qq.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>katie.martin511@market.ae</t>
+          <t>joseph_hoffman875@solutions.so</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>alice_may@auto.ug</t>
+          <t>dipl.-ing._diether53@architect.dk</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>iolanda+garzoni-montecchi@optonline.net</t>
+          <t>arno-dörschner-döring@financial.cn</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>lucie-luce_gonzalez216@outlook.com</t>
+          <t>training@music.ir</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sig.ra_licia170@hotmail.com</t>
+          <t>markbarry@name.ec</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>valentine+bouvet@mobile.ve</t>
+          <t>heiketrub554@mailspring.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>supervisor@service.ae</t>
+          <t>maureen+pugh-jones419@runbox.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>nicholas_graham@lycos.com</t>
+          <t>joshua_horton114@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>stephen_davidson@rocketmail.com</t>
+          <t>max_thomson@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>anasmith@zoho.com</t>
+          <t>margaud+albert-rodriguez@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>operations@jobs.ro</t>
+          <t>isabelladoria970@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>erika_williams501@insurance.bj</t>
+          <t>ceo@mobi.me</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>benjaminevrard347@mailspring.com</t>
+          <t>head_of_sales@web.fm</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>dr._ariana@construction.au</t>
+          <t>logistics@clinic.bh</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jacqueline_barber@outlook.com</t>
+          <t>emily+hussain524@info.ye</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>henri.mendès@accounting.bi</t>
+          <t>timothykirby531@tech.ci</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ing._ingolf@comcast.net</t>
+          <t>rhonda_rosario@org.af</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>nicholaspeterson@agency.et</t>
+          <t>ops@realty.de</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>dorina+beier@bellsouth.net</t>
+          <t>leanne.brady411@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>timothéetoussaint-chrétien@network.sm</t>
+          <t>gordon.bibi@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ops@biz.pk</t>
+          <t>founder@media.ws</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>petra-mülichen@architect.ml</t>
+          <t>ernestosalgari@jobs.np</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>caterina.zamengo@hushmail.com</t>
+          <t>coo@finance.ge</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>marketing@cloud.ga</t>
+          <t>sebastiano+simeoni274@consulting.tm</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>gilberto+duse110@tiscali.co.uk</t>
+          <t>célina+pons@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>eckehard-hande@me.com</t>
+          <t>sig._annibale@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>rogerlagarde@media.cl</t>
+          <t>cynthia_garza766@finance.ma</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>admin@music.sk</t>
+          <t>frederick_chambers-whitehead215@jobs.me</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>natalia_gullotta476@lycos.com</t>
+          <t>engineering@health.la</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>kimberley-taylor@marketing.sc</t>
+          <t>hugh.byrne524@tech.ls</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>augustin.lemoine-bernier@fastmail.com</t>
+          <t>finance@auto.md</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>asta.löchel@org.is</t>
+          <t>finance_team@biz.au</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ann-gallagher142@gmail.com</t>
+          <t>elvira-mannoia@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>danielbrunet165@restaurant.qa</t>
+          <t>hélène_le@mailspring.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>geert_gertz@cloud.cm</t>
+          <t>hanspeter_klemm952@financial.gt</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dr-james@restaurant.tj</t>
+          <t>christophersnow@name.fi</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>linda-vaughan478@tutanota.com</t>
+          <t>angela_watts243@qq.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>agnès.maillot@att.net</t>
+          <t>paride+germano897@education.ua</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>dakota+hardy@pro.bz</t>
+          <t>umbertopezzali513@events.sk</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>louise-auréliemichaud@fund.fi</t>
+          <t>larry+johnson636@brand.pt</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>thomas.fouquet597@net.si</t>
+          <t>lucio+rubbia484@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sandra-ferrara-lamborghini@org.sn</t>
+          <t>evelin_steinberg@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>cynthia+jacobson@protonmail.com</t>
+          <t>blake-allen482@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>louisde@me.com</t>
+          <t>victoireroux467@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>kellymoore31@att.net</t>
+          <t>gregory-clark125@bellsouth.net</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>developer@company.gw</t>
+          <t>mr+gary159@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>alex_colas@ecommerce.lv</t>
+          <t>partner@org.my</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>éléonore+legros269@media.qa</t>
+          <t>strategist@fund.at</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dr.ann619@me.com</t>
+          <t>ulrike-schomber@inbox.com</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>temistocle+lollobrigida@marketing.uy</t>
+          <t>thekla-käster737@org.km</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>alinafiorucci@comcast.net</t>
+          <t>chiaratozzo-borroni@co.nl</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dr+alexandra@mobi.ng</t>
+          <t>adamlee889@marketing.md</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>krystaljones369@hotmail.com</t>
+          <t>dipl.-ing.+kriemhild207@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>julie_reid@health.tz</t>
+          <t>angela+bowers@fund.tn</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mr.james@info.et</t>
+          <t>pamela-wall@com.td</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>améliedidier@digital.sk</t>
+          <t>jeremiah+hartman398@lawyer.et</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>caroline.de27@protonmail.com</t>
+          <t>giulietta_pavanello-sismondi@jobs.si</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>assistant_manager@com.bf</t>
+          <t>irma.turci-navone277@co.ve</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>clive_russell588@biz.uz</t>
+          <t>dipl.-ing.+kenneth522@mail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>accounts@info.td</t>
+          <t>astrid+pages@construction.us</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>matthew_page286@fastmail.com</t>
+          <t>project_management@market.eg</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>elizabeth+kobelt261@info.ye</t>
+          <t>cilli+mude@optonline.net</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>louispatterson453@fastmail.com</t>
+          <t>johann-mangold420@fund.sy</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>viola.hänel-boucsein759@webmail.co.za</t>
+          <t>marie-theres+budig920@jobs.gh</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>peter.figueroa@tech.fm</t>
+          <t>product_manager@group.lt</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mr..hunter@inbox.com</t>
+          <t>sonia_favata@web.pa</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>rebeccaallen@company.ss</t>
+          <t>edwardhiggins-jones@yandex.ru</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>support@group.pk</t>
+          <t>krzysztof-süßebier299@mobile.tm</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>zairaonisto613@net.hn</t>
+          <t>development@co.my</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>anna.morris@tech.tm</t>
+          <t>rachel+kemp88@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>karen.alexander887@insurance.ve</t>
+          <t>mr-kevin473@ventures.li</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ramona_garzoni@me.com</t>
+          <t>sophia_cardano629@cloud.uz</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>laura-perez436@att.net</t>
+          <t>aaronwilliams@me.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>thomas_de@insurance.kr</t>
+          <t>stephanie-peters722@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>editha.langern-margraf641@mobi.bo</t>
+          <t>research@org.ch</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>it@jobs.tj</t>
+          <t>mariano.fusani93@gmx.net</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>florian-ziegert-seidel@tv.ml</t>
+          <t>it_support@realty.pa</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>christelle+le@yahoo.com</t>
+          <t>customer_success@shop.my</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>jeffrey-williamson72@tiscali.co.uk</t>
+          <t>maryse.benoit200@biz.bh</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>logistics@law.ir</t>
+          <t>it_support@co.jp</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>marketing@photo.nf</t>
+          <t>théodore.rocher@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>dott.+veronica62@optonline.net</t>
+          <t>flora.gabbana@design.br</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sieglinde_mans598@cloud.ec</t>
+          <t>éric+bernard642@finance.ly</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>antoine-barbe356@mail.com</t>
+          <t>it@lawyer.sy</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>heinz-günter_gerlach316@jobs.mx</t>
+          <t>rebecca_edwards828@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>valentina_zorbach888@financial.id</t>
+          <t>executive@web.my</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>christine_hudson@insurance.lt</t>
+          <t>leah+hughes@ecommerce.as</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>customer_service@online.za</t>
+          <t>alphons.prada134@music.rs</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>russell+smith609@protonmail.com</t>
+          <t>data_analyticsuser_experience@lawyer.tj</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>business_dev@social.tj</t>
+          <t>louis-nixon517@online.id</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>thibault_de744@social.km</t>
+          <t>data_science@cloud.jp</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>julia+o'sullivan210@biz.mw</t>
+          <t>dott.-fabia401@service.mx</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>margueritegomes-lenoir@live.com</t>
+          <t>stefan.benthin@webmail.co.za</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>licia-pacetti391@mail.com</t>
+          <t>design@store.it</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>piergiorgio+polani540@online.cg</t>
+          <t>laure_leroux232@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>lazzaro-donatoni350@bellsouth.net</t>
+          <t>biagio.pavarotti@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ryan.best663@inbox.com</t>
+          <t>product@ventures.ua</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>legal@insurance.am</t>
+          <t>annettanitto@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>amadeo-petrucci699@outlook.com</t>
+          <t>developer@marketing.me</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>piersanti_puglisi164@events.th</t>
+          <t>timothéehubert@net.dk</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>suzanne_pelletier757@outlook.com</t>
+          <t>concetta_palladio@service.tw</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>odettelemaire153@gmx.com</t>
+          <t>colton.jones@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>honoré+meunier-teixeira837@bellsouth.net</t>
+          <t>hannelore.hartmann@tiscali.co.uk</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>honoré-éric-mary217@live.com</t>
+          <t>renzo+oscuro-guglielmi376@financial.ua</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>julie+riley@sbcglobal.net</t>
+          <t>mr_albert@fashion.za</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>assistant@design.ua</t>
+          <t>chief_of_staff@events.be</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>legal@financial.md</t>
+          <t>head_of_sales@design.ve</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>brand_management@tv.mr</t>
+          <t>sig.ra.michela@media.cv</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>procurement@jobs.tz</t>
+          <t>finance@restaurant.sy</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>roy_whitehouse287@me.bj</t>
+          <t>brian+sherman472@biz.bd</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>mrrussell259@store.nz</t>
+          <t>procurement@consulting.is</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>security@insurance.dj</t>
+          <t>research@group.kz</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>martinepierre-petitjean81@protonmail.com</t>
+          <t>sergio+naser-henschel231@runbox.com</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>robert_nguyen@education.hu</t>
+          <t>finance_team@finance.st</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>laura-meyers754@me.ca</t>
+          <t>sales@lawyer.zm</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>kevin_klein922@tiscali.co.uk</t>
+          <t>dr-vanessa@webmail.co.za</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>univ.prof.-margaret@jobs.lb</t>
+          <t>raymond-voisin@biz.ma</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>marketing@law.sv</t>
+          <t>sig.ra_valentina662@trade.ro</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>shannon.atkinson514@info.np</t>
+          <t>joyce-wright@tv.ne</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>amber+mitchell281@yandex.com</t>
+          <t>admin@insurance.ae</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>emine+rust663@finance.pk</t>
+          <t>vito+oderwald@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>brand_management@ventures.mg</t>
+          <t>dipl.-ing.dennis@mail.com</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>marketing_team@design.jp</t>
+          <t>dipl.-ing.pauline585@shop.ls</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>thomas_walls@media.lv</t>
+          <t>luisa.gualandi@optonline.net</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>alanwarren@look.com</t>
+          <t>miss.lisa@tv.fm</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>frau.gudula108@lycos.com</t>
+          <t>benjamin_roy266@fund.im</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>salvi-brunelleschi@store.fj</t>
+          <t>guillaume-pierrebourdon60@co.ke</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>petar_hesse684@online.lu</t>
+          <t>marco.napolitano@education.ve</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>mr.tony730@architect.kh</t>
+          <t>michelweber601@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>draaron@hushmail.com</t>
+          <t>gloria.wilmsen@tiscali.co.uk</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>legal@me.au</t>
+          <t>irmi_stumpf@fund.ls</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>marcel+dos896@me.com</t>
+          <t>angelica+ferrazzi375@online.ne</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>frederick+stokes410@jobs.iq</t>
+          <t>jean_howe655@education.ne</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>mrsharriet@design.za</t>
+          <t>cristina+matthäi@jobs.ch</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>admin@social.in</t>
+          <t>development@realty.au</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>engineering@biz.lk</t>
+          <t>david.hurley@restaurant.om</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>data_science@cloud.sg</t>
+          <t>evelin.seip-sontag469@naver.com</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>hermann.josef@name.hr</t>
+          <t>strategy@agency.bh</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>kirsty-evans-webster@rocketmail.com</t>
+          <t>camille-laroche843@ventures.th</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>joan_howe-stone256@ventures.ye</t>
+          <t>mrs-rita625@online.zm</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ernestomaffei@consulting.cn</t>
+          <t>drkim489@lycos.com</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>girolamo.dallapé@inbox.com</t>
+          <t>crystal.matthews886@inbox.com</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>founder@company.dj</t>
+          <t>domenico+battelli@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>lukeglover@shop.uz</t>
+          <t>jack.powell-willis@qq.com</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>nedda-capecchi-scandone646@sbcglobal.net</t>
+          <t>roland+hendriks205@store.it</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>developer@auto.af</t>
+          <t>vincenza.desio384@biz.im</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>accountant@store.om</t>
+          <t>jean_vasseur@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>élodie+didier@lycos.com</t>
+          <t>it@me.er</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>guillaume_foucher-grenier@clinic.jp</t>
+          <t>nino+valguarnera798@jobs.hu</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>compliance@net.gq</t>
+          <t>calogero_luciani@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>customer_success@consulting.ma</t>
+          <t>lorraine-colette_legrand462@comcast.net</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>george_gutierrez@trade.af</t>
+          <t>marissa-ferrabosco@fund.no</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>alain-zacharieschmitt@insurance.my</t>
+          <t>anouk.lamy@pro.cn</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>jessica_kennedy976@outlook.com</t>
+          <t>panfilo.regge@restaurant.il</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>diane_harvey795@tv.ir</t>
+          <t>annie.speer-jockel490@ventures.mr</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>susan_faivre-grondin@me.com</t>
+          <t>carlo-weinhage@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>léon-raymond@finance.co</t>
+          <t>dorothy-shepherd@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>finance@shop.sm</t>
+          <t>livia-morosini@health.py</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>customer_care@group.sv</t>
+          <t>brand_management@music.uz</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>dr._gesine194@gmx.com</t>
+          <t>puccio_ovadia-turci537@jobs.km</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>lindsaycox753@consulting.at</t>
+          <t>adèle+allard748@icloud.com</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>agnès-anouk-payet@gmx.com</t>
+          <t>lori_romero@aol.com</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>dennis.perry990@social.ci</t>
+          <t>amanda-jackson@photography.la</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>marketing_team@photo.bh</t>
+          <t>procurement@com.lt</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>stephen.torres@tv.bw</t>
+          <t>roland.gérard538@me.com</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>prof.+rose@inbox.com</t>
+          <t>head_of_sales@photography.pe</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>maya+huhn@tiscali.co.uk</t>
+          <t>engineering@cloud.sb</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>marleen-köhler@webmail.co.za</t>
+          <t>giulia_angeli@auto.et</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>quality_assurance@marketing.bo</t>
+          <t>laetitia+bourdon@market.sc</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>laurence-rémy987@gmx.com</t>
+          <t>martino+battisti@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>josephgeorge@hushmail.com</t>
+          <t>bertrand-mercier68@web.de</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>kathleen+collins@mailspring.com</t>
+          <t>security@org.br</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>brooke_ritter221@consulting.ge</t>
+          <t>product_manager@shop.tn</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>assistant_manager@cloud.lk</t>
+          <t>pamela-price-faulkner263@rakuten.jp</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>event_management@design.ua</t>
+          <t>laurent.duval@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>nina.trebbi@optonline.net</t>
+          <t>kelly+andrews@webmail.co.za</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>louisedelorme@bellsouth.net</t>
+          <t>kathryn.schaefer636@look.com</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>evelyne-ruppert@trade.la</t>
+          <t>jonathanwest@biz.uz</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>colette-ferrand529@web.kw</t>
+          <t>training@realty.na</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>grazianotoscani@outlook.com</t>
+          <t>joseph_tran444@tv.kr</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>megan+gilbert670@mail.ru</t>
+          <t>it_support@jobs.nf</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>dott.lauretta520@optonline.net</t>
+          <t>benitajacobi@consulting.jp</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>andrew-lopez825@look.com</t>
+          <t>partner@enterprise.tn</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>logistics@marketing.kh</t>
+          <t>herr+claas767@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>xeniabiggen21@cloud.al</t>
+          <t>charles+gutierrez@mobi.kz</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ryan-henry941@verizon.net</t>
+          <t>pauline-nathalie-alves@freenet.de</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>drcharles503@zoho.com</t>
+          <t>annburns-lee@service.tg</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>public_relations@lawyer.ug</t>
+          <t>customer_support@media.ni</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>françois_gomez@auto.si</t>
+          <t>darrell.lara@bellsouth.net</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>carla_patel@mail.ru</t>
+          <t>customer_success@service.ar</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>hughroberts@education.ge</t>
+          <t>nicole+louis479@web.eg</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>hans-henninghenschel@lawyer.ci</t>
+          <t>melanie+chapman@shop.ye</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>mohammedsmith762@sbcglobal.net</t>
+          <t>deborah.thomas-sharp32@jobs.ge</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>training@mobile.ie</t>
+          <t>hardy-sager-zahn671@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>patrick+parent10@ventures.br</t>
+          <t>project_management@me.tg</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>customer_care@trade.uz</t>
+          <t>natalia+rusticucci457@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>christopher+short@insurance.ee</t>
+          <t>charles+de@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>james+rodgers934@cloud.sm</t>
+          <t>lara-borromeo749@music.mn</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>rolando_siffredi824@accounting.mm</t>
+          <t>nelly.bohnbach665@tv.fr</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>customer_service@cloud.at</t>
+          <t>dr-rhys@design.ba</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>osvaldo.udinesi-pasqua@yandex.com</t>
+          <t>dino_casalodi@tiscali.co.uk</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>fortunata-malpighi@photography.hn</t>
+          <t>logistics@cloud.bn</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>karla+täsche974@insurance.as</t>
+          <t>data_analyticsuser_experience@restaurant.is</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>univ.prof.+korinna861@att.net</t>
+          <t>dott.+erika@ecommerce.np</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ursel_pergande616@hotmail.com</t>
+          <t>accountant@tv.tn</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>dr.wayne855@lawyer.mm</t>
+          <t>cfo@ventures.za</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>heino+siering-bachmann@att.net</t>
+          <t>christelle-gilles-dufour829@finance.mg</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>albertmatthews335@insurance.ni</t>
+          <t>declan_nolan@accounting.ma</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>data_analyticsuser_experience@pro.mr</t>
+          <t>hildatintzmann@social.mz</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>diethelm.stoll-neuschäfer601@yandex.com</t>
+          <t>ashley-burns@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>customer_service@cloud.ci</t>
+          <t>massimo-roncalli@tiscali.co.uk</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>donna+paul@consulting.mm</t>
+          <t>assistant_manager@consulting.bj</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>admin@jobs.tm</t>
+          <t>ingbert-adler@marketing.mr</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>pr@market.sy</t>
+          <t>justinhodges@me.com</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>augustin+huhn820@rediffmail.com</t>
+          <t>finance@architect.mt</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>bradley_fuller@me.com</t>
+          <t>research@realty.in</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>donna-mocenigo339@gmx.com</t>
+          <t>justin_brown685@lycos.com</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>alphonse_durand@msn.com</t>
+          <t>michelaaccardo@finance.kg</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>designer@marketing.is</t>
+          <t>lyndawebb-barnes@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>victor.laroche@webmail.co.za</t>
+          <t>solemorgagni-cimini427@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>eliana.balbo@brand.ua</t>
+          <t>thomas_lin@insurance.lr</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>marketing@insurance.uz</t>
+          <t>anaïs-de504@store.kg</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>brand_management@marketing.by</t>
+          <t>procurement@me.vu</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>monique.seip295@webmail.co.za</t>
+          <t>ing._kemal237@tiscali.co.uk</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ashleigh_phillips@att.net</t>
+          <t>jane_hope214@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>gilles.weiss@fastmail.com</t>
+          <t>denise_jackson513@tech.co</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>crystalmiller318@mobile.us</t>
+          <t>nuray.reichmann368@naver.com</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>teresa.shaw782@agency.ci</t>
+          <t>dipl.-ing.-mona262@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>suzanne+andre@finance.be</t>
+          <t>cameron_garrett222@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>alfkoch@shop.ee</t>
+          <t>philippine-poirier485@look.com</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>letizia-ponti@cloud.jo</t>
+          <t>alexandriapalmer968@online.de</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>univ.prof.sylwia714@company.in</t>
+          <t>janetnolan@cloud.ge</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>tammy.edwards903@clinic.au</t>
+          <t>anouk+fernandez504@att.net</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>michèle+dupont@rediffmail.com</t>
+          <t>frederickbailey@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>margaret.castaneda644@jobs.st</t>
+          <t>amleto-endrizzi@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>gillian_swift@aol.com</t>
+          <t>gavin_mitchell@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>founder@me.hk</t>
+          <t>training@construction.uk</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>sean.davis127@cloud.de</t>
+          <t>head_of_sales@jobs.zw</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>mr.gareth@online.rw</t>
+          <t>customer_service@jobs.so</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ops@photography.tz</t>
+          <t>céline+delannoy@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ing..hanne-lore@inbox.com</t>
+          <t>mr-daniel56@freenet.de</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>gabriellévy@hotmail.com</t>
+          <t>james-taylor610@construction.gh</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>samtaylor-hudson@aol.com</t>
+          <t>aldo_golgi-fabrizi@126.com</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>david-anderson706@shop.bz</t>
+          <t>operations_manager@group.ae</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>sabinerodrigues80@group.mk</t>
+          <t>dott.danilo108@insurance.cn</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>june+smith@group.sk</t>
+          <t>edwin.curry@auto.hr</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>it@financial.hn</t>
+          <t>paola-papafava@webmail.co.za</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>mrs-danielle@tutanota.com</t>
+          <t>naomi-thompson566@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>jamesgomez@gmail.com</t>
+          <t>traugott+klingelhöfer400@company.af</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>dr.gavin@live.com</t>
+          <t>anouk-valentinegilles935@naver.com</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>melissa.ellis402@rediffmail.com</t>
+          <t>antoinette_fournier766@lawyer.sk</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>data_science@restaurant.cv</t>
+          <t>karenholmes@cloud.gt</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>sara_wagner@protonmail.com</t>
+          <t>matthew+smith@health.sc</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>célina-christine-auger@rediffmail.com</t>
+          <t>event_management@fund.jp</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>founder@biz.kw</t>
+          <t>sarahvance360@naver.com</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>admin@media.ca</t>
+          <t>robert+johnston271@info.bn</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>philippine-dupuis257@sbcglobal.net</t>
+          <t>timothéebailly@cloud.tj</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>assistant_manager@insurance.my</t>
+          <t>iolanda-scandone@auto.gw</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>rosieanderson@hushmail.com</t>
+          <t>eliana+gori-cappelli@trade.me</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>fernandabongiorno218@marketing.ki</t>
+          <t>adam.wilson216@att.net</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>james-cobb@mail.ru</t>
+          <t>ceo@realty.vu</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>eduard-schäfer538@lycos.com</t>
+          <t>dott.ferdinando645@shop.pw</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>hugues+lacombe@jobs.ls</t>
+          <t>patrickklein678@optonline.net</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>tonya_anderson@yandex.com</t>
+          <t>juliettemartel38@163.com</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>mr_leonard738@financial.ve</t>
+          <t>steve.anderson@biz.sd</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>sergius+comisso807@construction.ba</t>
+          <t>thibault+chartier@inbox.com</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>keith_young705@network.al</t>
+          <t>antoine-bourdon73@service.pg</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>kirareichmann@network.td</t>
+          <t>nathanmorris931@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>marketing@insurance.sb</t>
+          <t>claude_costa@runbox.com</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>augustin-théophilerenard@insurance.mw</t>
+          <t>dr+benjamin@look.com</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>legal@music.mr</t>
+          <t>univ.prof.-mirella92@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>annetta+tedesco@jobs.cg</t>
+          <t>sig..osvaldo@ventures.br</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>timothy-bates@gmx.com</t>
+          <t>prof._hans-erich@marketing.eg</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>natalia+trupp@accounting.gw</t>
+          <t>chief_of_staff@mobile.er</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>dr.+wanda@msn.com</t>
+          <t>chief_of_staff@cloud.cn</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>mr.wayne@hotmail.com</t>
+          <t>project_management@mobi.bh</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>jean-ledoux@hotmail.com</t>
+          <t>rosa-maria-austermühle-kaul194@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>design@solutions.ml</t>
+          <t>alexander.lopez392@design.ki</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>lucy-bourdon@tv.uy</t>
+          <t>karsten+hermighausen420@insurance.ye</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>brankaseifert@ventures.tw</t>
+          <t>anaïs-le@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>claire-wagner407@insurance.sk</t>
+          <t>business_dev@group.af</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>fabrizio.matteotti-rossetti@financial.dz</t>
+          <t>theresa-nette-adolph91@mail.com</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>pauline.gillet339@outlook.com</t>
+          <t>dipl.-ing.-karolin@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>giacomo+pisano14@mail.ru</t>
+          <t>jodi_sloan@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>mareenstroh352@mail.com</t>
+          <t>finance_team@photography.et</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>team_lead@shop.vu</t>
+          <t>victoria_house@bellsouth.net</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>breanna+meyers@hotmail.com</t>
+          <t>julien.bertrand@lycos.com</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>thierry_faure@health.ae</t>
+          <t>scott.villarreal637@fund.bi</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ms+mandy@biz.sg</t>
+          <t>graziella+comolli395@org.md</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ms_louise782@ventures.ga</t>
+          <t>analyst@group.hk</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>judith_tucker802@accounting.na</t>
+          <t>sales@digital.in</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>brandi_johnson564@inbox.com</t>
+          <t>julia_kruschwitz397@financial.cl</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>manon.du98@yahoo.com</t>
+          <t>gabihenck@agency.ao</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>alfred+le@tv.in</t>
+          <t>melita.renner248@web.ni</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>jesusmyers@fastmail.com</t>
+          <t>antonina-leopardi377@ventures.no</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>dr_mark571@fund.ci</t>
+          <t>melissa-bacosi462@photo.vu</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>antonius.jessel@verizon.net</t>
+          <t>ms+marilyn@co.sa</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>engineering@co.gh</t>
+          <t>development@cloud.ph</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>patrick+salmon@biz.fo</t>
+          <t>dr_mohammed31@lawyer.im</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>gaetano-venturi234@live.com</t>
+          <t>sales@service.sy</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>vincenza-chiesa-baglioni281@shop.dj</t>
+          <t>adam+mitchell@ventures.ng</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>loredana+puglisi@yahoo.com</t>
+          <t>gregory.reilly@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>susan_gutierrez758@protonmail.com</t>
+          <t>mrs.paula@naver.com</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>alec_chase@hotmail.com</t>
+          <t>tinapage@name.be</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>matthew+day@pro.tj</t>
+          <t>tom+dixon@solutions.hu</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>heiner+girschner@optonline.net</t>
+          <t>tristan+guichard385@live.com</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>sig.ra_laura404@inbox.com</t>
+          <t>margotraynaud@freenet.de</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>francoamato@fashion.hn</t>
+          <t>dr.+remo792@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>jonathan_rhodes@fashion.sc</t>
+          <t>brand_management@health.jo</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>design@network.bg</t>
+          <t>mr_joseph@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>sylvia_almagià805@company.gr</t>
+          <t>anke.heser194@education.jp</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>sig..lodovico273@solutions.us</t>
+          <t>filippomonti@photography.sm</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ernesto_gregori910@zoho.com</t>
+          <t>mariapistoletto@design.nl</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>consultant@media.uy</t>
+          <t>miguel-francis404@consulting.gr</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>jean.léger74@hotmail.com</t>
+          <t>henri-traore@photography.cr</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>carla.ludovisi440@rocketmail.com</t>
+          <t>chief_of_staff@social.hn</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>laura-wheeler@look.com</t>
+          <t>giuseppina+pavone@jobs.tg</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>jefferydavis@comcast.net</t>
+          <t>denise.giraud@education.iq</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>robertadulbecco194@group.th</t>
+          <t>matthew_atkinson@cloud.dk</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>sean+mccoy@shop.pw</t>
+          <t>marcus+martin-carr@network.np</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>nicola+rosmini546@optonline.net</t>
+          <t>constance_guyon@online.me</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>julian+riley@finance.sc</t>
+          <t>antoniagiannone558@msn.com</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>cfo@fund.is</t>
+          <t>iolanda-sermonti294@mobile.nf</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>univ.prof._marie-louise826@att.net</t>
+          <t>coriolano-luria12@realty.ua</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>gordonferguson@msn.com</t>
+          <t>jean.thompson@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>nicholas.clarke78@ventures.cm</t>
+          <t>dott.guarino811@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>stephen_boyer@cloud.ve</t>
+          <t>training@media.st</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>amanda+kelly@network.id</t>
+          <t>antonellobembo279@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>sabrina.henderson336@shop.pk</t>
+          <t>oliver.brown94@brand.pk</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>julesjacques@hotmail.com</t>
+          <t>compliance@architect.mz</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>helma-schlosser488@tiscali.co.uk</t>
+          <t>lukeo'brien36@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>achille.giunti@sbcglobal.net</t>
+          <t>ing..luis331@tv.mg</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>assistant_manager@pro.ru</t>
+          <t>alessia.zampa@me.com</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>dipl.-ing.-ester814@mailspring.com</t>
+          <t>stanislavzimmer@inbox.com</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>benjamin.collet156@comcast.net</t>
+          <t>paul+casey@store.hr</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>customer_support@solutions.me</t>
+          <t>renata-becker920@startup.ae</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>gianni+pontecorvo194@restaurant.la</t>
+          <t>legal@service.ug</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>glenn+pearce@construction.ee</t>
+          <t>gertraud_neuschäfer159@architect.ck</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>lottischeibe@ecommerce.pg</t>
+          <t>admin@financial.fi</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>cfo@design.ml</t>
+          <t>mrelliot278@ventures.ae</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>mrs_jean@me.com</t>
+          <t>marcelle_gros@construction.mm</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>sylvie-berthelot646@tiscali.co.uk</t>
+          <t>team_lead@store.gt</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ortrun+rogge@optonline.net</t>
+          <t>vanessa_gregorio-trevisani@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>faustogualandi@info.uz</t>
+          <t>operations_manager@marketing.fj</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>stanley_davies@trade.gt</t>
+          <t>gabriellaunay974@architect.be</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>assistant_manager@mobile.ar</t>
+          <t>stephanie_dawson@me.com</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>reece+potts171@bellsouth.net</t>
+          <t>melissa_cossiga@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>gesche_budig@info.ss</t>
+          <t>design@group.np</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>jonathan.barker866@shop.is</t>
+          <t>marie_bruneau@shop.af</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>isabel.holland@fastmail.com</t>
+          <t>rose_lachmann692@insurance.zw</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>public_relations@pro.be</t>
+          <t>grace-stevens@ecommerce.fr</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>jacob.scott411@rediffmail.com</t>
+          <t>dipl.-ing.emanuel@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>hortense+chevalier326@co.qa</t>
+          <t>robert-william+mary@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>bryan_ellis@rediffmail.com</t>
+          <t>finance_team@ventures.dz</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>logistics@org.th</t>
+          <t>cameron.dean967@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>marianne-gonzalez@yandex.com</t>
+          <t>isaac-du85@freenet.de</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ingmar_wagenknecht329@group.kr</t>
+          <t>executive@marketing.to</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>assistant@solutions.st</t>
+          <t>security@name.zm</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>michaelmeyer@aol.com</t>
+          <t>vinko_lehmann@mailspring.com</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>jean+warren827@rocketmail.com</t>
+          <t>susan+rodriguez@social.km</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>stephanie_smith-moran@protonmail.com</t>
+          <t>sonia-casarin-travaglia352@runbox.com</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>mr.bradley705@company.bo</t>
+          <t>gloria-germano885@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>customer_service@biz.et</t>
+          <t>gérard+grégoire819@tv.kh</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>sales@tech.cn</t>
+          <t>calcedonio+panatta661@health.sn</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>grégoire+salmon@rocketmail.com</t>
+          <t>event_management@construction.jo</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>judithturnbull@yahoo.com</t>
+          <t>arthur_nette-staude@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>support@insurance.bz</t>
+          <t>emmanuelle-delmas833@group.eg</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ms+pauline79@protonmail.com</t>
+          <t>isabelle_peltier@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>isabella_melton@law.cn</t>
+          <t>jérôme.da@mail.com</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>marina-pavarotti@comcast.net</t>
+          <t>brandonford@fund.ki</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>danielle+hill966@fastmail.com</t>
+          <t>sophie+da561@naver.com</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>pr@fashion.es</t>
+          <t>nigel_wright-may@auto.tg</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>tulliosperi@hushmail.com</t>
+          <t>fredo-lussu875@comcast.net</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>raymond.caldwell@gmail.com</t>
+          <t>pierangelo-parpinel@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>dawngregory117@yahoo.com</t>
+          <t>janet+gregory@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>legal@solutions.fm</t>
+          <t>guillaume_legendre186@photography.in</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>dr+anna266@mailspring.com</t>
+          <t>claudine+langlois@fund.ee</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>matthieu.fabre@pro.mn</t>
+          <t>santino.rossetti@fastmail.com</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>reginaphillips142@consulting.ee</t>
+          <t>oscar_mcgee582@mobi.dk</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>business_operations@insurance.qa</t>
+          <t>sole_tacchini@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>annabrown@zoho.com</t>
+          <t>sig._claudio428@protonmail.com</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>romana.mazzini@fund.kh</t>
+          <t>univ.prof.+klaus-d.@pro.ga</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>hélène+simon@com.sm</t>
+          <t>sales@design.ga</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>hans-martin+kramer662@tiscali.co.uk</t>
+          <t>tatianabocelli53@media.bz</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>camille-ledoux@me.com</t>
+          <t>adriennesamson-briand911@comcast.net</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>bozenarömer@yahoo.com</t>
+          <t>arnold.drub@fastmail.com</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>assistant_manager@net.tw</t>
+          <t>finance@startup.co</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>product_manager@finance.gr</t>
+          <t>customer_care@fund.rw</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>sig.ra+bianca@look.com</t>
+          <t>victoria-weaver933@rakuten.jp</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>training@health.hu</t>
+          <t>director@jobs.ye</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>legal@consulting.ne</t>
+          <t>henri+fleury@service.st</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>françoise-de793@startup.ie</t>
+          <t>jill.swanson@me.com</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>célina-isabelle_roche@org.ar</t>
+          <t>nathaliegaudin439@tech.ir</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>morena+miniati-cannizzaro121@zoho.com</t>
+          <t>it@com.th</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>public_relations@trade.ar</t>
+          <t>jeannine_pruvost156@info.bz</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>procurement@jobs.uz</t>
+          <t>bernadette-le858@clinic.am</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>communications@realty.st</t>
+          <t>nicholas.armstrong245@biz.bg</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>edward_thomas683@jobs.td</t>
+          <t>gunter.lehmann-drubin807@com.ve</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>mranthony@media.sm</t>
+          <t>alex.rudolph189@tech.qa</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>benoît.leduc856@sbcglobal.net</t>
+          <t>noël_wagner647@brand.at</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>adamhayden465@company.mr</t>
+          <t>dr.josephine81@cloud.jo</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>bernhardine-lindau@hotmail.com</t>
+          <t>matthew_williams743@auto.nu</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>hélènemarion-étienne229@design.mt</t>
+          <t>pamelahunt@education.tm</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>amandamarshall346@verizon.net</t>
+          <t>alphonsehernandez418@mailspring.com</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>stefani.heidrich@inbox.com</t>
+          <t>ida_mortati467@company.ml</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>dianeahmed@lawyer.hn</t>
+          <t>marketing_team@social.bj</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>emmanuel-pierre+guillot@gmx.com</t>
+          <t>cto@law.ch</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>paul_sanchez@hotmail.com</t>
+          <t>augustin-denis_meunier703@financial.by</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>phillipking@comcast.net</t>
+          <t>alwina.fröhlich@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>lukawagenknecht-striebitz@design.om</t>
+          <t>piareuter182@solutions.hn</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>carla-longhena-zaccagnini@msn.com</t>
+          <t>élisabethfernandez-carlier@accounting.mx</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>adelmo_nicolucci@gmx.com</t>
+          <t>annelie+junk-hein962@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>event_management@store.bz</t>
+          <t>marketing_team@store.ao</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>univ.prof..erdogan@network.la</t>
+          <t>annettacastiglione-modiano763@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>paulina_piccinni615@org.fr</t>
+          <t>véroniquede@online.tn</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>procurement@cloud.iq</t>
+          <t>marketing@law.km</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>angelina-mazzeo-verga@online.om</t>
+          <t>silvio_morrocco@com.ba</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>developer@biz.ug</t>
+          <t>product_manager@photography.np</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>dipl.-ing._heidrun956@realty.de</t>
+          <t>toby.willis@org.my</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>henri_le103@co.mt</t>
+          <t>joseph.de246@consulting.ao</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ilka_dussen665@mail.com</t>
+          <t>gian.semitecolo@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>margaud_gillet@gmx.com</t>
+          <t>john+myers@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>jermaine.crawford145@trade.al</t>
+          <t>hugo_querini255@financial.kw</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>amy-flowers@msn.com</t>
+          <t>admin@name.al</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>alfredjulien-bouvet189@mail.com</t>
+          <t>bianca.wagner@health.tm</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>design@online.cn</t>
+          <t>dimitrioskobelt@name.ci</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>marketing_team@brand.et</t>
+          <t>constanceröhricht@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>alfredo+notarbartolo775@hushmail.com</t>
+          <t>claudia_moresi@lawyer.ie</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>head_of_sales@lawyer.hk</t>
+          <t>research@education.cz</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>lucas.bonneau939@org.ua</t>
+          <t>consultant@photography.bi</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>gabriella+faggiani775@ventures.me</t>
+          <t>cfo@pro.sb</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>marie-meunier@me.com</t>
+          <t>nicole-jones@bellsouth.net</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>sylvie-heydrich124@sbcglobal.net</t>
+          <t>finance@fund.cn</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>hansjoachimmühle503@me.pw</t>
+          <t>samanthathomas@web.de</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>accounts@ventures.zm</t>
+          <t>accounts@law.gh</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>designer@marketing.bi</t>
+          <t>biancamurri@fashion.tg</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>heathermiller146@accounting.vn</t>
+          <t>mrs-kayleigh@look.com</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ops@org.in</t>
+          <t>simone-de641@web.de</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>romana_canova953@org.sa</t>
+          <t>cristina.cuomo@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ing.-mehdi@yandex.com</t>
+          <t>evi.hering633@freenet.de</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>mary.berry212@market.vn</t>
+          <t>mr+charles554@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>karl-dieter_gehringer@events.md</t>
+          <t>sales@marketing.ug</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>jerome.austin792@ventures.tw</t>
+          <t>paulettesalmon-pinto783@ecommerce.lr</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>rita.scarponi-regge@restaurant.hu</t>
+          <t>ms_marilyn@group.km</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>recruitment@enterprise.cl</t>
+          <t>development@lawyer.gi</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>catherine_glover@lawyer.nf</t>
+          <t>customer_success@media.ne</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>sig.raflora@hushmail.com</t>
+          <t>sig..luciano@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>rosariabosio765@mail.com</t>
+          <t>arthur_white@shop.id</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>hans-eberhard_kaul@auto.tn</t>
+          <t>joseph.vaughan-johnston@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>julien.dumas@me.com</t>
+          <t>sandorweller@media.jp</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>dott..flora@tiscali.co.uk</t>
+          <t>yolanda-flores@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>frida-gröttner101@architect.in</t>
+          <t>prof..fredy984@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>mr.allan381@optonline.net</t>
+          <t>dott..pierluigi222@freenet.de</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>sig._danilo@att.net</t>
+          <t>patriciarenault-loiseau@aol.com</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>analyst@store.to</t>
+          <t>mr_arthur211@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>miss+dawn@lycos.com</t>
+          <t>virginie-louiseweber@insurance.bz</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>marketing@solutions.kr</t>
+          <t>claudine-jacqueline+chartier810@qq.com</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>data_analyticsuser_experience@cloud.nu</t>
+          <t>dr..victoria@marketing.dj</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>michael.velazquez370@co.mn</t>
+          <t>legal@financial.et</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>partner@startup.ge</t>
+          <t>chantal_hernandez@tv.nz</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>paul.jenkins31@company.fo</t>
+          <t>lisa+velasquez@jobs.hr</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>sophiepeters13@hushmail.com</t>
+          <t>univ.prof..hakan348@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>data_analyticsuser_experience@agency.kw</t>
+          <t>ida-sordi-cortese@me.sa</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>linda+duncan691@marketing.np</t>
+          <t>martinpinto-foucher@look.com</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>capucine_neveu871@msn.com</t>
+          <t>catherinepineau918@net.mz</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>nicholasjackson@inbox.com</t>
+          <t>sales@fashion.lk</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>doritmargraf@insurance.vu</t>
+          <t>luciabettoni178@aol.com</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>quality_assurance@mobi.fm</t>
+          <t>theobald.kostolzin970@ventures.cg</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>helen-chamberlain598@me.com</t>
+          <t>bianca.valentino@aol.com</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>elaine_buckley769@protonmail.com</t>
+          <t>laurakidd@realty.ch</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>manager@financial.cv</t>
+          <t>bethan.baker@lycos.com</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>rhonda+vega@yandex.com</t>
+          <t>sig.ra.viridiana988@msn.com</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>gail+roberts-walters@finance.kh</t>
+          <t>elliot_osborne@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>licia-guicciardini274@financial.id</t>
+          <t>dott.giuliana745@att.net</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>robertlaurent@store.cn</t>
+          <t>costanzo-pratesi@mobi.md</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>siegmar-bolnbach628@online.gr</t>
+          <t>pr@law.my</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ugo.rensi482@me.com</t>
+          <t>logistics@finance.ly</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>alain+le@agency.gr</t>
+          <t>sybillenoack163@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>tracyjones@trade.uy</t>
+          <t>accounts@group.cg</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>charlene+richardson308@lycos.com</t>
+          <t>dipl.-ing._kirstin@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>adelasiasokolov@hotmail.com</t>
+          <t>toddgonzalez296@fastmail.com</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>raymond.morton@hushmail.com</t>
+          <t>angelica-valentino@126.com</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>richard-le496@aol.com</t>
+          <t>charles_coleman@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>zoé+lemonnier754@music.ma</t>
+          <t>amélie.berthelot-gaillard780@mailspring.com</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>stephanie.elliott-parkinson@look.com</t>
+          <t>curtis.wong@music.zw</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>adriana.peruzzi152@architect.gw</t>
+          <t>strategist@music.kz</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>customer_care@media.dj</t>
+          <t>carolkirk@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>it_support@org.mk</t>
+          <t>siegried.rohleder98@net.uy</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>melinda.thomas132@ventures.ao</t>
+          <t>shannon-hopkins-watkins276@service.dj</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>carl-berry418@me.ga</t>
+          <t>alexis-stokes@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>michaele_mende@yandex.com</t>
+          <t>nicolas_barbier117@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>consultant@biz.np</t>
+          <t>adèle-riou907@gmx.net</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>robin_foster-miles@rediffmail.com</t>
+          <t>danielclark@enterprise.at</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>customer_success@law.ar</t>
+          <t>recruitment@web.ck</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>valeriehowe525@tutanota.com</t>
+          <t>nathalie-adélaïde_robin304@shop.sy</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>research@company.ml</t>
+          <t>eleanora_morandini-fantozzi343@ventures.mk</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>josetterichard595@verizon.net</t>
+          <t>josephine.taylor73@group.so</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>karendixon@me.com</t>
+          <t>marc_léger221@info.me</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ing..dajana896@me.gw</t>
+          <t>marilyn+holden323@music.eg</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>dr._carmine917@hushmail.com</t>
+          <t>guenter-heuser@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>étienne-georgesjulien814@cloud.sl</t>
+          <t>michèledurand898@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>admin@market.tm</t>
+          <t>bruce_hammond818@qq.com</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>augustin.munoz270@mail.com</t>
+          <t>thérèse_delmas-morin914@biz.at</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>alexanderdonnelly@media.ni</t>
+          <t>gerdi_wähner@info.sm</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>business_dev@agency.lr</t>
+          <t>mathewfox-blackburn@social.om</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>rodney_matthews43@insurance.lt</t>
+          <t>silvia-zanzi@online.ug</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>herr+jan@live.com</t>
+          <t>silvio.polesel996@auto.bd</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>finance_team@trade.so</t>
+          <t>flora_lettiere374@jobs.fr</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>coo@finance.ie</t>
+          <t>brittney_chavez330@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>finance@consulting.pw</t>
+          <t>development@solutions.ua</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>davidwalters215@restaurant.az</t>
+          <t>juliarogers@org.lb</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>jeffreyschmidt@marketing.td</t>
+          <t>lucemarques341@att.net</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>cto@media.ve</t>
+          <t>sven.häring-heinrich197@financial.mw</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>olivier_le312@service.nf</t>
+          <t>lucas-bradley@architect.ca</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>mark-jackson@enterprise.lt</t>
+          <t>benjamin+hargreaves@fund.bg</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>scott_burgess@me.com</t>
+          <t>agnès-capucine+dupré433@inbox.com</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>legal@design.er</t>
+          <t>anastasios-möchlichen185@lycos.com</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>mr-colin@protonmail.com</t>
+          <t>teresa-phillips@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>williamcabrera964@msn.com</t>
+          <t>jeanne-robin221@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>eliana_quasimodo534@group.nf</t>
+          <t>ugolinosbarbaro805@accounting.ke</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ronald+rivera@digital.cg</t>
+          <t>founder@financial.uz</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>angela.sheppard249@design.ne</t>
+          <t>orlando-asprucci-cignaroli@cloud.np</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>mathildedu353@rocketmail.com</t>
+          <t>claus-peter_spieß@126.com</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>cordula+briemer-scheuermann840@verizon.net</t>
+          <t>karen+friedman145@ventures.bj</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>bianca.parini@msn.com</t>
+          <t>nathaliemorvan594@ventures.bw</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>kristin.davis225@icloud.com</t>
+          <t>accounts@architect.bd</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>olivier-fournier307@icloud.com</t>
+          <t>beverleymccarthy989@lawyer.ml</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>hans-helmut-hoffmann843@consulting.ss</t>
+          <t>amandajohnson261@look.com</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>cindy_nielsen406@gmx.com</t>
+          <t>prof._gertrude@lycos.com</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>claus-eimer-spieß332@hushmail.com</t>
+          <t>sig..ottone190@yandex.ru</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>quality_assurance@biz.lt</t>
+          <t>anne-lenoir@com.au</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>legal_team@pro.bw</t>
+          <t>françois-leroy747@accounting.ca</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>thomas-west@financial.ir</t>
+          <t>director@insurance.sn</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>dott.+vincentio542@net.li</t>
+          <t>simone.barthelemy-rey@market.th</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>donatello-squarcione-bellucci@fund.ru</t>
+          <t>operations@marketing.im</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>mariana.fritsch58@comcast.net</t>
+          <t>dominic_clarke@look.com</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>kimberly+cooper271@mailspring.com</t>
+          <t>dott.alphons158@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>gunnar+hornig-trupp@msn.com</t>
+          <t>sonianolcini585@auto.cm</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>dott._armando615@rediffmail.com</t>
+          <t>sig..torquato@pro.li</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>giosuè-vanvitelli356@name.eg</t>
+          <t>raffaelloravaglioli-interminei@protonmail.com</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>jerry.jackson340@webmail.co.za</t>
+          <t>aimé_bonneau@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>denise+barthelemy@store.sd</t>
+          <t>karlheinz+schwital800@cloud.mw</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>wendelin.langern-oderwald990@yandex.com</t>
+          <t>customer_care@fund.pe</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>harriet.wood@gmail.com</t>
+          <t>jonasseifert904@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>misshelen@lawyer.fi</t>
+          <t>alisonbell380@media.ir</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>jasminmartin@tv.bj</t>
+          <t>antonello-baresi@yandex.ru</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>miriam+aumann@marketing.np</t>
+          <t>guglielmo-franscini949@comcast.net</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>founder@ecommerce.cm</t>
+          <t>jérôme.gay@shop.ec</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>univ.prof._ramona@aol.com</t>
+          <t>fausto+ariasso@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>dott._antonella@inbox.com</t>
+          <t>rosina.zabarella-nicolucci@construction.lu</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>team_lead@biz.kh</t>
+          <t>nath-bernadette+mary693@comcast.net</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>emmerich_kallert-jähn@org.ck</t>
+          <t>ralf-dieter-henck185@net.au</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>drkevin916@zoho.com</t>
+          <t>coo@biz.bg</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>kevinhopkins859@me.com</t>
+          <t>barbara-tirabassi456@online.lv</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>victoria+pagliaro373@webmail.co.za</t>
+          <t>olivie-cordier@freenet.de</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>dott..caterina@net.us</t>
+          <t>dott..venancio@insurance.th</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>matthew-taylor116@shop.se</t>
+          <t>heiko_hertrampf571@comcast.net</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>product_manager@media.by</t>
+          <t>laure+laroche771@service.cl</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>dott.donna@jobs.mk</t>
+          <t>it@marketing.ge</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>marywhittaker706@startup.az</t>
+          <t>penny_martin@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>mrs-olivia@webmail.co.za</t>
+          <t>kurtrodriguez@consulting.pa</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>pina-badoglio-chiappetta158@hotmail.com</t>
+          <t>heike.steckel515@icloud.com</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>jules+valette@design.bj</t>
+          <t>partner@health.bf</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>gracefreeman@live.com</t>
+          <t>ida-morgagni@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>shelby_rodriguez357@lycos.com</t>
+          <t>adèle-de@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>amanda-roberts@cloud.sk</t>
+          <t>toni+johnson423@webmail.co.za</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>mrs_marilyn@photo.st</t>
+          <t>strategy@me.tv</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>sig.ra-adriana@co.ee</t>
+          <t>marzena.lindner103@media.py</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>rolandgay@me.com</t>
+          <t>ashleighcook@tiscali.co.uk</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>dr_dominic215@mail.com</t>
+          <t>development@digital.zw</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>romeo+giacometti491@media.tv</t>
+          <t>valérie+durand177@net.uz</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>felicia.ashley@comcast.net</t>
+          <t>lucmercier849@health.bz</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>developer@auto.sy</t>
+          <t>lorraine+boucher457@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>drdeclan982@ecommerce.la</t>
+          <t>margaudfoucher340@shop.is</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>eric+bennett@me.com</t>
+          <t>odette-deschamps246@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>univ.prof.+henri@photography.ma</t>
+          <t>sales@pro.td</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>dr_iain@gmail.com</t>
+          <t>georges+martel@info.fm</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>jolanda.draghi-ferrante760@me.com</t>
+          <t>nicolelee542@aol.com</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>marianne_le359@cloud.ke</t>
+          <t>jeanninevallet@solutions.fj</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>stéphanieleblanc301@consulting.ck</t>
+          <t>cesare-angiolello@pro.ci</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>william_pinto@store.bz</t>
+          <t>luciano.zampa@jobs.ca</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>frithjof+ruppersberger926@store.nl</t>
+          <t>leonardocorrer@naver.com</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>event_management@market.km</t>
+          <t>étienne+de@biz.kg</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>security@fashion.ec</t>
+          <t>véronique.fischer@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>camille-besson@brand.ir</t>
+          <t>ottokar_salz@ventures.bh</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>ryan.weaver918@aol.com</t>
+          <t>dott.+romina940@marketing.mt</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>jeffreyscott805@zoho.com</t>
+          <t>irma+giannetti@insurance.tj</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>prof._mohammad@jobs.sc</t>
+          <t>kylekidd382@msn.com</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>tilo+plath-hendriks502@biz.mm</t>
+          <t>assistant_manager@network.kr</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>dr_leon@yahoo.com</t>
+          <t>executive@events.ba</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>eva-marie+ring@yandex.com</t>
+          <t>stacey-simmons-martin931@lycos.com</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>ian.cartwright383@education.me</t>
+          <t>ferdinando_giammusso@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>sales@tv.uz</t>
+          <t>legal_team@cloud.sv</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>joséphine.julien42@verizon.net</t>
+          <t>logistics@mobile.cv</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>accountant@online.iq</t>
+          <t>mr-rhys@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>kasimir-huhn376@org.ml</t>
+          <t>univ.prof.centa@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>it@jobs.gr</t>
+          <t>ronaldo+calvo763@education.zm</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>irma_killer673@optonline.net</t>
+          <t>alyssa+thompson@digital.ae</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>frauroswita@finance.be</t>
+          <t>heidrun_eimer344@online.iq</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>melanie+graham@finance.vu</t>
+          <t>kati.kusch@163.com</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>cfo@financial.cm</t>
+          <t>shannonmeyers132@me.com</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>guyimbert-barthelemy795@info.au</t>
+          <t>conor+hall151@aol.com</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>stephanie.peterson@ventures.lv</t>
+          <t>almuth+wagner-renner173@web.no</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>designer@online.tm</t>
+          <t>aloys_röhrdanz604@live.com</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>david_miranda@financial.ch</t>
+          <t>hans-hinrich.ring976@architect.so</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>belindamülichen@ventures.th</t>
+          <t>sarahgreen@web.de</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>chief_of_staff@store.vn</t>
+          <t>sig.ra+graziella@optonline.net</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>sig.ra+lauretta@online.pl</t>
+          <t>cto@financial.at</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>cfo@enterprise.hr</t>
+          <t>edward.may738@fund.vu</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>nathan+hart-khan406@outlook.com</t>
+          <t>agathe-bonneau@me.com</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>henriette_chartier658@protonmail.com</t>
+          <t>donatella_bodoni-ioppi@trade.hu</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>heikeackermann@icloud.com</t>
+          <t>leszekbaum@tutanota.com</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>prof..vladimir66@consulting.nf</t>
+          <t>dr..nermin@look.com</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>michelle.hurst@hotmail.com</t>
+          <t>hayley_harris@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>cto@trade.ao</t>
+          <t>finance@education.li</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>admin@design.il</t>
+          <t>christine-maurice367@info.ke</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>lesliecarroll@ventures.ba</t>
+          <t>dr-lawrence@ventures.tz</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>michelatozzo-endrizzi@aol.com</t>
+          <t>ceo@com.hu</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>dana.williams@net.lr</t>
+          <t>hansbenthin-junk@126.com</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>dr..harriet868@company.co</t>
+          <t>prof._christl@ventures.ge</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>hayley+dixon716@lycos.com</t>
+          <t>lolita+blasi-foletti40@restaurant.np</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>dr-ricky546@aol.com</t>
+          <t>chief_of_staff@clinic.ua</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>guy-gérard@ventures.et</t>
+          <t>research@social.bd</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>recruitment@service.il</t>
+          <t>sara-freeman973@pro.to</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>severino-zaccagnini-barillaro@fund.hn</t>
+          <t>andré_duhamel-roussel850@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>ms_denise887@net.bn</t>
+          <t>rosa-maria_bloch173@startup.za</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>fausto-proietti-camanni@icloud.com</t>
+          <t>marcelle-lacroix-potier@service.bf</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>dorina-mosemann@consulting.kw</t>
+          <t>coo@shop.ie</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>hannah-jones@org.ph</t>
+          <t>strategy@ventures.ss</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>liesel.hövel270@zoho.com</t>
+          <t>franz-peter+drubin983@insurance.pe</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>lambertobarese@tutanota.com</t>
+          <t>security@service.cz</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>eileen+bell836@construction.py</t>
+          <t>mrs._marilyn@net.tg</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>raffaellinogiammusso579@mobi.ga</t>
+          <t>hugotaccola@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>kimberly+murray@fund.ve</t>
+          <t>wendyowens889@brand.nu</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>frédériqueadam@financial.zm</t>
+          <t>charles+dixon468@insurance.il</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>meagan+blankenship949@tech.sn</t>
+          <t>developer@jobs.mw</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>mr_guy591@online.lb</t>
+          <t>it@mobile.pw</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>émilie_riou-raymond187@yahoo.com</t>
+          <t>ing..baptist302@look.com</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>accountant@online.qa</t>
+          <t>hr@social.sc</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>nora.neureuther@rocketmail.com</t>
+          <t>wulfplath-lübs511@marketing.lu</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>bernwardsontag-thanel@bellsouth.net</t>
+          <t>nedda_morgagni653@look.com</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>prof.+helena@biz.za</t>
+          <t>marie-michaud96@lycos.com</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>support@cloud.de</t>
+          <t>darrentomlinson@fastmail.com</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ing.-katherina@tutanota.com</t>
+          <t>sibylle-gehringer@net.gh</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>molly_quinn-o'brien@photo.ae</t>
+          <t>ops@enterprise.ae</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>andrée-le@webmail.co.za</t>
+          <t>lonnie-miller194@events.dk</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>thomas+wright761@sbcglobal.net</t>
+          <t>ronald-west@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>valentineroche805@realty.tw</t>
+          <t>lynn_williams423@solutions.li</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>ludovicazaguri777@inbox.com</t>
+          <t>vincenzo_interminei@gmx.net</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>aliceda970@financial.nz</t>
+          <t>jennifer.richardson@cloud.jo</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>project_management@accounting.am</t>
+          <t>robert_medina44@service.mn</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>howard_shaw@financial.td</t>
+          <t>prof._siegrid@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>dominic_phillips971@icloud.com</t>
+          <t>donna+whitney698@store.ug</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>ciro-casagrande-turci830@startup.tv</t>
+          <t>aria_chiaramonte-rosselli324@lawyer.kh</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>reimund.otto584@sbcglobal.net</t>
+          <t>camille+de396@insurance.se</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>consultant@com.st</t>
+          <t>ms.carolyn966@protonmail.com</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>tammymcpherson@biz.no</t>
+          <t>ms.karen@163.com</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>marketing@cloud.bf</t>
+          <t>tonya_may@market.is</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>security@clinic.mr</t>
+          <t>compliance@restaurant.tz</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>assistant@realty.st</t>
+          <t>anica-löchel-fiebig163@163.com</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>silvia-bottaro889@solutions.bz</t>
+          <t>vincenza-caccioppoli-bacosi921@solutions.es</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>noémicoste@shop.sm</t>
+          <t>maria-mclean@market.ng</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>fabrizio_tasca275@sbcglobal.net</t>
+          <t>lindamills37@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>gioachino.moresi-trombetta@icloud.com</t>
+          <t>quality_assurance@consulting.so</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>isabella-bettin-toscanini@agency.mx</t>
+          <t>herr.tassilo171@msn.com</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>laurie.butler@bellsouth.net</t>
+          <t>brandon.reynolds560@brand.by</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>project_management@financial.qa</t>
+          <t>designer@realty.md</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>paul_paffrath545@hushmail.com</t>
+          <t>dylan_chen943@tech.sy</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>leyla.hofmann@brand.kg</t>
+          <t>legal_team@ventures.bo</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>ms+carole@zoho.com</t>
+          <t>angela+johnson48@marketing.bz</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>mrclive@realty.cv</t>
+          <t>accounts@biz.gh</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>amy.burns@msn.com</t>
+          <t>ops@org.ni</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>heather+glover@architect.tg</t>
+          <t>eckart+thanel@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>rebecca_barrera@hotmail.com</t>
+          <t>virgilio+calarco984@me.rs</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>anouk.brunel-hoareau761@hushmail.com</t>
+          <t>sole.ponti54@aol.com</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>angelo+pacomio-guarneri@cloud.lu</t>
+          <t>franciscoullmann@info.us</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>marcel+briand763@solutions.tv</t>
+          <t>angela+anderson907@mobile.id</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>marianne-pereira@store.cg</t>
+          <t>executive@cloud.my</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>legal@solutions.bw</t>
+          <t>sales@tech.pk</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>hiltraud+hornig@tv.im</t>
+          <t>ing._mirko742@group.fi</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>herr.willibald913@webmail.co.za</t>
+          <t>timothéecarre@service.la</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>marlen_weiß703@marketing.ws</t>
+          <t>assistant@shop.bw</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>virgiliodepero685@protonmail.com</t>
+          <t>michael+evans@cloud.lb</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>nicole+chavez@trade.gr</t>
+          <t>yvonne_barrera@inbox.com</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>patrizio-barillaro-orsini132@finance.nu</t>
+          <t>timothy+castro689@lawyer.gi</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>chantal-jacques@mobi.fi</t>
+          <t>alisonwelch683@brand.ch</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>compliance@group.kg</t>
+          <t>margritzobel593@store.ca</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>mskaren671@hushmail.com</t>
+          <t>prof.petar@info.tz</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>vincent-verdier43@market.au</t>
+          <t>strategist@events.gw</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>ceo@brand.it</t>
+          <t>sara+börner834@events.ge</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>azeglio-sauli-zichichi625@gmail.com</t>
+          <t>cory_stevenson@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>emilyrobinson@tv.mm</t>
+          <t>christine+bonilla@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>brian+powell@media.pg</t>
+          <t>heather+curtis-griffiths236@fund.pw</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>tibor-seip@yandex.com</t>
+          <t>miodrag.neureuther@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>prof..nicole670@mobile.st</t>
+          <t>gerold+sorgatz659@org.nz</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>nicoletta+gentilini698@icloud.com</t>
+          <t>laetitia.launay-girard@realty.mr</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>pr@pro.er</t>
+          <t>katherine-taylor869@rakuten.jp</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>valentina.sordi718@shop.im</t>
+          <t>patricia.richardson@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>rita+arnold840@insurance.ir</t>
+          <t>margot.humbert-blanchet@mobi.za</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>project_management@construction.cr</t>
+          <t>brand_management@shop.vn</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>matilda+bernetti-parmitano926@fund.ro</t>
+          <t>shane-ball879@mobile.lu</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>nathalie_cordier-arnaud297@protonmail.com</t>
+          <t>frau+tina923@net.nz</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>adrienne-carre@lawyer.fj</t>
+          <t>pierre-augustin-bonnet542@mailspring.com</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>sig.ra.jolanda@hushmail.com</t>
+          <t>édith-pereira-lebreton@naver.com</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>marta+gaito-donarelli@mail.com</t>
+          <t>cto@ventures.fj</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>sarahneal414@bellsouth.net</t>
+          <t>françoise-de367@live.com</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>sig.+lazzaro@tutanota.com</t>
+          <t>gérard+michaud53@fund.pt</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>jaqueline+weihmann524@optonline.net</t>
+          <t>ehrhard+martin@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>elmo-veneziano@marketing.sl</t>
+          <t>dipl.-ing.bernt371@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>donatello_pistoletto-montanelli252@webmail.co.za</t>
+          <t>susan+leroy385@freenet.de</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>developer@startup.al</t>
+          <t>finance@financial.ng</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>marysele@health.sb</t>
+          <t>nathalie-audreyneveu140@biz.ma</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>josette+renaud-blot100@tech.mt</t>
+          <t>laura+franceschi@media.tv</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>gilbertroy632@financial.by</t>
+          <t>compliance@design.st</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>gisa+spieß-boucsein@org.tv</t>
+          <t>ms_dawn@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>victor_gautier281@finance.lr</t>
+          <t>public_relations@construction.mx</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>julian_clarke639@zoho.com</t>
+          <t>flaviavirgilio649@co.cg</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>dr+guy697@info.ru</t>
+          <t>renata.ughi233@construction.za</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>univ.prof.-albin351@info.nl</t>
+          <t>procurement@cloud.as</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>finance_team@lawyer.uz</t>
+          <t>marketing_team@store.ee</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>allan+birch119@consulting.st</t>
+          <t>falk.weiß749@digital.sa</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>ceo@music.as</t>
+          <t>mahmoud_hauffer439@trade.bd</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>security@media.uy</t>
+          <t>designer@cloud.cl</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>dominiquestokes924@yahoo.com</t>
+          <t>security@net.lb</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>kristin-boyd@fund.mz</t>
+          <t>atenulf.romagnoli745@media.sn</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>consultant@info.vu</t>
+          <t>louis-frédéric_leclerc90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>alain+lamy@biz.sa</t>
+          <t>strategy@jobs.er</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>eddie-green@net.im</t>
+          <t>quality_assurance@info.cl</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>suzannesingh@architect.az</t>
+          <t>christian.reyes@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>miss_kelly@protonmail.com</t>
+          <t>santino.berlusconi@enterprise.ug</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>coo@architect.ve</t>
+          <t>dylan_wood@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>brian-oliver@jobs.es</t>
+          <t>albert+jones31@trade.ls</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>designer@mobile.cl</t>
+          <t>margot.römer94@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>timothy-pearce-woods656@look.com</t>
+          <t>consultant@cloud.am</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>annaskinner@financial.sn</t>
+          <t>dr..paulo@mailspring.com</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>laureanogentilini329@events.gr</t>
+          <t>michellemiah-wilkinson@me.com</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>matthieumasson502@music.km</t>
+          <t>josippölitz@health.kh</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>hans-jürgenschüler@mobile.cz</t>
+          <t>adrienne+guillou509@architect.mk</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>tim_eckbauer@gmail.com</t>
+          <t>accounts@social.sy</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>maureenevans804@gmx.com</t>
+          <t>dr_matthew@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>operations@clinic.cl</t>
+          <t>laetitia.bertrand-léger@optonline.net</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>olivier_du@aol.com</t>
+          <t>finance_team@me.pe</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>melinagaito929@aol.com</t>
+          <t>ing.+tülay@music.ao</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>amy.newman@music.as</t>
+          <t>alphonselamy@runbox.com</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>alfredotosto@rediffmail.com</t>
+          <t>nina-barese403@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>angel.howard272@auto.uy</t>
+          <t>georges+mathieu-martins67@ecommerce.ne</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>lazzaro.cilibrasi715@accounting.so</t>
+          <t>karl-josef+stadelmann@restaurant.py</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>michel-fontaine386@photography.sb</t>
+          <t>nicolas-perrot@optonline.net</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>cfo@marketing.lr</t>
+          <t>ryankennedy@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>tristan_hervé257@hushmail.com</t>
+          <t>alicia.boyd728@clinic.ba</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>björn.schmiedt@store.kh</t>
+          <t>tiziana_rocca380@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>julie-washington@yandex.com</t>
+          <t>susan-farrell810@social.tg</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>alix-marine_pelletier813@cloud.gt</t>
+          <t>lisalambert611@info.sd</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>it_support@me.tn</t>
+          <t>manager@restaurant.ke</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>dott.sandra653@media.mm</t>
+          <t>danielle+cook@media.rs</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>gianni-aulenti@comcast.net</t>
+          <t>nathalie.germain@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>leanne+carr@architect.ye</t>
+          <t>sheila.daniels505@architect.ml</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>alwin+gröttner@fund.bz</t>
+          <t>antoinette_allain831@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>robinsharp-payne318@mail.ru</t>
+          <t>olivie_lévy@rakuten.jp</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>support@online.nl</t>
+          <t>accountant@media.tw</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>geoffrey+king34@social.pe</t>
+          <t>gabrielle+maillot-martineau@att.net</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>compliance@events.nf</t>
+          <t>michèle.le215@protonmail.com</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>honorélenoir415@web.gq</t>
+          <t>capucine-antoinette-masse274@agency.pt</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>alice+masson884@ventures.is</t>
+          <t>thomas-sanchez707@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>design@enterprise.it</t>
+          <t>nicholasmcdaniel@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>supervisor@solutions.lb</t>
+          <t>rita.porcellato187@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>lucas.riou837@hushmail.com</t>
+          <t>tonya+aguilar@optonline.net</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>ines_dörr916@webmail.co.za</t>
+          <t>dennishuffman@fund.sc</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>pamela_morris@me.ni</t>
+          <t>msjenna603@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>mr_mark240@biz.iq</t>
+          <t>diana+maxwell@realty.zm</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>anette_auch507@media.ee</t>
+          <t>design@fund.kr</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>audrey-toussaint890@live.com</t>
+          <t>immo+dippel545@group.az</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>supervisor@consulting.sl</t>
+          <t>amletoporcellato-satta994@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>giuliana_jacuzzi@trade.gt</t>
+          <t>dr_raymond@consulting.br</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>research@shop.sn</t>
+          <t>laurenz.jacob-faust@photo.kh</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>customer_success@construction.tm</t>
+          <t>miss-alexandra@music.jp</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>colette+gay@hushmail.com</t>
+          <t>security@tech.fi</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>coo@restaurant.us</t>
+          <t>cto@com.ua</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>danielleelliott@sbcglobal.net</t>
+          <t>clairekennedy398@runbox.com</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>melanieanderson824@store.bj</t>
+          <t>agatheprévost773@freenet.de</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>design@photography.pa</t>
+          <t>william-williamneveu@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>daniellereynaud891@construction.gw</t>
+          <t>rabea_nette604@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>mrs.deborah894@verizon.net</t>
+          <t>melanie.chan409@events.to</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>jennifer-fernandez365@rocketmail.com</t>
+          <t>customer_success@online.pw</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>vesna_wernecke-scheel@hotmail.com</t>
+          <t>christopherlong939@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>heideroseschäfer@tv.mn</t>
+          <t>luke-lloyd245@gmx.net</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>gino-casadei382@live.com</t>
+          <t>samantha-woodward-jackson579@net.nu</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>team_lead@realty.uk</t>
+          <t>deborah+crawford181@webmail.co.za</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>marywerner@hushmail.com</t>
+          <t>luciacanali@live.com</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>joseph.courtois244@biz.et</t>
+          <t>admin@clinic.vu</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>ignazio_iacobucci144@live.com</t>
+          <t>margaret+james-curtis@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>jeffrey+palmer62@inbox.com</t>
+          <t>dr.ralph349@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>ceo@pro.tj</t>
+          <t>luciano+reising@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>rosariaparpinel@lycos.com</t>
+          <t>dale.fowler@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>sylvio_gieß@fund.qa</t>
+          <t>recruitment@fashion.ck</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>finance@architect.gr</t>
+          <t>silvio-toscani-ramazzotti@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>admin@shop.tg</t>
+          <t>fulvio_vercelloni@comcast.net</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>giuseppinabaroffio216@optonline.net</t>
+          <t>annalisa-tafuri191@lawyer.dz</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>edward+johnston-robson@live.com</t>
+          <t>birgitta.zänker@web.de</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>heidemarie_zorbach780@verizon.net</t>
+          <t>nicolettapulci-ioppi33@web.de</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>jasmine.sullivan@fund.la</t>
+          <t>ms+kathleen@web.tj</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>timothy+gallagher252@store.be</t>
+          <t>giada.tiepolo-salvo@mail.com</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>customer_service@photography.ug</t>
+          <t>support@fashion.bi</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>compliance@online.ph</t>
+          <t>nicolas-thibault-louis@lawyer.sk</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>krzysztof+matthäi255@att.net</t>
+          <t>accountant@mobi.lv</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>miss-june996@mailspring.com</t>
+          <t>ops@info.ws</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>donnanoble@tiscali.co.uk</t>
+          <t>laura+valdez562@att.net</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>carl-james369@protonmail.com</t>
+          <t>nina.thanel145@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>sean-robinson819@fastmail.com</t>
+          <t>elena.giannelli-cassarà519@ventures.ye</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>massimobrunello-montanelli608@tutanota.com</t>
+          <t>melissajacobs451@solutions.ne</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>denisepetitjean@yandex.com</t>
+          <t>customer_success@info.py</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>gail_carroll71@group.ck</t>
+          <t>procurement@fund.sb</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>melissa_berrè467@gmail.com</t>
+          <t>mr.elliot@ventures.sk</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>sylvie-lacroix828@icloud.com</t>
+          <t>jonathan_collins@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>gilbert-bertin118@tiscali.co.uk</t>
+          <t>assistant@org.co</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>rembrandt-cignaroli@outlook.com</t>
+          <t>juneward253@att.net</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>dr._irene@health.ie</t>
+          <t>james.martin@design.ro</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>alderano-fattori@hushmail.com</t>
+          <t>finance@fund.lv</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>customer_service@me.fj</t>
+          <t>operations_manager@accounting.dk</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>ms.ann379@aol.com</t>
+          <t>théophile-alphonse_fabre@clinic.tv</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>operations_manager@shop.ss</t>
+          <t>damariskaul@group.ve</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>rosemary-reed-davies@info.me</t>
+          <t>dott..milo@realty.am</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>steve_stadelmann@construction.sv</t>
+          <t>stephenhale488@digital.au</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>ciro+trezzini141@fund.pw</t>
+          <t>business_operations@group.bg</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>dr.keith@photo.iq</t>
+          <t>jessica-grant625@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>ferdinando_lattuada@aol.com</t>
+          <t>philip+williams71@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>werakrebs@yandex.com</t>
+          <t>lucecolas@gmx.com</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>franck.chrétien@aol.com</t>
+          <t>joséphine+du865@brand.cn</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>support@accounting.ar</t>
+          <t>nada-vollbrecht@realty.sg</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>lailasteckel899@aol.com</t>
+          <t>peter.meyers@trade.bn</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>capucine-nicole_munoz@protonmail.com</t>
+          <t>susan+taylor971@media.mn</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>jennifer+bentley@mail.com</t>
+          <t>dawnreid@service.mg</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>federigo.ortese@events.pa</t>
+          <t>robert.golden534@runbox.com</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>aimé_fontaine@gmx.com</t>
+          <t>recruitment@architect.az</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>mrmalcolm@inbox.com</t>
+          <t>lauretta_modiano@163.com</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>camillo-piccio@consulting.ir</t>
+          <t>bacciobernetti753@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>michaelhopkins@org.pt</t>
+          <t>théophilepicard@me.com</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>alwina_seidel-boucsein@verizon.net</t>
+          <t>xavier+georges@biz.sb</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>pr@info.py</t>
+          <t>pénélope-denis488@market.sb</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>lindsey_barton990@law.mx</t>
+          <t>it@shop.tn</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>greco_boezio@msn.com</t>
+          <t>jacopo+pastine212@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>supervisor@company.jo</t>
+          <t>muharrem_thies911@lawyer.lb</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>ops@store.lb</t>
+          <t>steven-bailey@live.com</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>cathy_turner478@hotmail.com</t>
+          <t>amicoluxardo38@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>ing.massimo@optonline.net</t>
+          <t>head_of_hrhr@construction.ir</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>sophiapowers935@ecommerce.md</t>
+          <t>supervisor@co.nf</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>antonietta.weinhage@att.net</t>
+          <t>accounts@consulting.dj</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>emilyharris509@msn.com</t>
+          <t>mrs_hayley172@store.be</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>raymond.gillet@group.cv</t>
+          <t>event_management@ventures.ck</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>development@group.af</t>
+          <t>benjamin.todd@naver.com</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>assistant@trade.la</t>
+          <t>maurice+rousseau-hamon@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>marcus_tschentscher@network.lk</t>
+          <t>stephaniepeterson776@jobs.gq</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>baccio+ruffini@education.th</t>
+          <t>dr.brett99@swissmail.com</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>antoinette_jourdan757@media.qa</t>
+          <t>customer_support@fund.se</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>luispeters251@finance.kh</t>
+          <t>rosina_maderno@mail.com</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>dott.-stefano832@yahoo.com</t>
+          <t>marketing@mobi.id</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>carole_evans390@architect.sy</t>
+          <t>amico-gramsci@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>eileen_klotz342@clinic.mr</t>
+          <t>françoise+michel@me.com</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>director@store.bf</t>
+          <t>manager@service.ng</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>business_dev@clinic.pe</t>
+          <t>kristopher.brown@optonline.net</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>univ.prof.albert794@solutions.rs</t>
+          <t>christopher.newman@social.lu</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>clärechristoph756@inbox.com</t>
+          <t>gabrielle-le@law.lr</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>kathryndavies-doherty@law.rw</t>
+          <t>clifford+thorpe861@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>it@company.so</t>
+          <t>kennethgonzalez468@clinic.si</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>kimberly+martinez961@pro.kw</t>
+          <t>brittney_kirk86@msn.com</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>isaac.lacroix167@att.net</t>
+          <t>paulette-simonemorel989@group.ve</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>maria_gioberti@protonmail.com</t>
+          <t>vladimir_mielcarek244@education.rw</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>dr-sara@design.vu</t>
+          <t>david+williams@ventures.tv</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>prof.-herbert@digital.br</t>
+          <t>carla_ioppi@sbcglobal.net</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>rémy+du524@yahoo.com</t>
+          <t>beth.gill541@service.ba</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>team_lead@mobile.bj</t>
+          <t>giampierocilea@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>customer_care@law.tn</t>
+          <t>support@social.sb</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>marisa-pignatti366@web.at</t>
+          <t>michaelthomas280@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>lisawright318@rocketmail.com</t>
+          <t>catherine+charpentier@126.com</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>hans-peter+ullmann161@rocketmail.com</t>
+          <t>logistics@law.km</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>kyle.mann@tiscali.co.uk</t>
+          <t>fabriziocignaroli79@icloud.com</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>mr+joe653@fastmail.com</t>
+          <t>gianna+gianinazzi911@ventures.me</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>magrit-pärtzelt@comcast.net</t>
+          <t>sig._ansaldo@rocketmail.com</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>caitlin+castillo201@inbox.com</t>
+          <t>dott.-vincenza@solutions.ck</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>louise.henry-aubry@mobi.ki</t>
+          <t>nina+caetani-molesini@photo.br</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>julie.dubois148@solutions.al</t>
+          <t>marcbertrand@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>giacinto.treccani@restaurant.pa</t>
+          <t>caleb_daniels@look.com</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>lucreziacarpaccio-tremonti@webmail.co.za</t>
+          <t>ludovicafallaci@webmail.co.za</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>jay+waters726@rocketmail.com</t>
+          <t>recruitment@cloud.it</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>amber_harding454@social.by</t>
+          <t>abdul.harris@com.hu</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>giuseppe.casale@startup.fm</t>
+          <t>jennifer.jennings489@live.com</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>head_of_hrhr@finance.bh</t>
+          <t>wilhelm+vollbrecht-walter718@tech.fj</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>daniel.reed830@marketing.np</t>
+          <t>léon-lefort-lebreton168@tiscali.co.uk</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>patric+fechner@mobi.mm</t>
+          <t>dina-nibali349@ecommerce.pk</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>sig.+cipriano@sbcglobal.net</t>
+          <t>ezioiacovelli-doglioni402@zoho.com</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>bertrand.raymond@look.com</t>
+          <t>simone+andre@me.tv</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>prof.cäcilie16@hushmail.com</t>
+          <t>margotboyer@education.er</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>antonietta_hering869@zoho.com</t>
+          <t>claudia+reynolds458@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>beppe+navone523@hotmail.com</t>
+          <t>andré-raymond.valette@finance.cn</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>dr+lawrence@store.cz</t>
+          <t>brand_management@shop.pa</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>communications@tech.nf</t>
+          <t>training@store.rs</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>mr.joel@gmx.com</t>
+          <t>ermenegildoagostinelli@events.at</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>development@fashion.cm</t>
+          <t>anastasios.binner@law.nu</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>engelbert-wagner@media.no</t>
+          <t>antoninapisano146@info.kz</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>hannah_henson@rocketmail.com</t>
+          <t>team_lead@fund.sm</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>alphonse+paul498@comcast.net</t>
+          <t>edwardjenkins181@webmail.co.za</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>marketing@consulting.hu</t>
+          <t>nathseguin399@finance.mz</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>alain_hebert-berthelot@mailspring.com</t>
+          <t>hr@shop.ni</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>finance_team@tv.bg</t>
+          <t>cathy_thomas214@comcast.net</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>ashley.dean@comcast.net</t>
+          <t>univ.prof.-rüdiger14@com.sa</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>gabriella.maffei@yahoo.com</t>
+          <t>stéphanepires23@events.th</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>robert+laroche-marchand@msn.com</t>
+          <t>hans-friedrich-hartmann-metz737@name.bf</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>ann_bates540@zoho.com</t>
+          <t>msmarion@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>director@photography.nu</t>
+          <t>monicadisdero@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>research@tech.gr</t>
+          <t>designer@store.ru</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>mrs-teresa@construction.sm</t>
+          <t>maggie-aubry632@co.sk</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>rachel-boyle-lane695@music.ug</t>
+          <t>chief_of_staff@education.ge</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>denis-emmanuel.hamon77@me.com</t>
+          <t>luce+baudry324@insurance.zm</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>nicholasbrown@trade.pw</t>
+          <t>leanne-edwards-hudson@shop.nl</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>support@online.cg</t>
+          <t>dott._veronica@design.so</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>ermenegildo+tutino@tutanota.com</t>
+          <t>tilly+becker559@tiscali.co.uk</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>susangauthier100@tutanota.com</t>
+          <t>petra+hübel@qq.com</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>émilie.mathieu@msn.com</t>
+          <t>herr+harold@realty.vn</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>tinacasale770@ventures.ao</t>
+          <t>nicole_durand@126.com</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>adélaïde+du505@me.com</t>
+          <t>zoé-andre@clinic.kh</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>theresa_weinhage@look.com</t>
+          <t>daniel+foucher@verizon.net</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>lisa+castillo918@org.cn</t>
+          <t>antonietta+baglioni@naver.com</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>product_manager@ventures.at</t>
+          <t>gordon_patterson@hushmail.com</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>hélène_carre230@cloud.sk</t>
+          <t>msjane@fund.pg</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>hr@lawyer.fm</t>
+          <t>gunda.hoffmann527@network.md</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>lauretta_moretti353@social.sy</t>
+          <t>adèle.brunel28@law.kr</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>analyst@digital.bo</t>
+          <t>miss_maria@me.com</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>training@insurance.at</t>
+          <t>partner@store.pw</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>joe-quinn@biz.zm</t>
+          <t>murat.lindau@ventures.ir</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>idabrunello-mercantini472@accounting.ye</t>
+          <t>vincenza+sandi@finance.dk</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>megan-stevens@market.ly</t>
+          <t>customer_success@brand.af</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>alexanderclark@biz.ec</t>
+          <t>ops@co.cn</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>philippe+deschamps487@msn.com</t>
+          <t>brand_management@financial.in</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>nadin+trapp-karge@fashion.mg</t>
+          <t>it@web.sv</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>head_of_hrhr@architect.af</t>
+          <t>laure.chauvet821@health.fo</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>christophergarza@webmail.co.za</t>
+          <t>emmafederico@jobs.im</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>marcel-raymond_michel@ventures.as</t>
+          <t>rosapavarotti393@jobs.id</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>patrickfabre665@optonline.net</t>
+          <t>executive@cloud.er</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>michelotto+morellato674@agency.lv</t>
+          <t>director@marketing.er</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>monica_serlupi663@sbcglobal.net</t>
+          <t>edelbert+neureuther@architect.ss</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>ing.-hansjörg@health.kr</t>
+          <t>susanne_le@web.dj</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>kelli_garza@online.pa</t>
+          <t>jennifer-terrell342@me.com</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>aliceclark@mailspring.com</t>
+          <t>christine+wilson618@yandex.com</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>capucine+poirier972@trade.za</t>
+          <t>support@online.al</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>christopher-walker566@accounting.sg</t>
+          <t>assistant_manager@cloud.sc</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>elizabethsnyder771@optonline.net</t>
+          <t>diana-vendetti@att.net</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>josettede@zoho.com</t>
+          <t>lisa+kim931@tiscali.co.uk</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>anna-morris56@att.net</t>
+          <t>callum-griffiths226@rakuten.jp</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>canan.wagner455@inbox.com</t>
+          <t>ermenegildocastelli@laposte.net</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>sig..gioele@me.bn</t>
+          <t>samuelgordon@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>procurement@marketing.la</t>
+          <t>founder@biz.ro</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>prof..markus@fastmail.com</t>
+          <t>ubaldosiffredi-aldobrandi783@fastmail.com</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>jean.kim537@mail.ru</t>
+          <t>louisede263@tv.kr</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>ezio+fracci-barcaccia@education.ly</t>
+          <t>vincent.martin@online.lk</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>legal@architect.ve</t>
+          <t>veronica-dippel@yeah.net</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>accounts@shop.ru</t>
+          <t>prof..antje@mobile.im</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>flora_comisso63@fastmail.com</t>
+          <t>mrs+alexandra174@trade.uk</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>engineering@finance.py</t>
+          <t>strategy@mobi.iq</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>virginie_da@lycos.com</t>
+          <t>public_relations@education.sd</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>product_manager@lawyer.ca</t>
+          <t>pr@group.pg</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>team_lead@consulting.eg</t>
+          <t>dr_terry@events.fm</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>lolita+bonolis501@mail.com</t>
+          <t>accounts@me.dz</t>
         </is>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>sydney+carter@hushmail.com</t>
+          <t>paride-spanevello923@events.gt</t>
         </is>
       </c>
     </row>
